--- a/data/trans_dic/P71_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P71_R-Dificultad-trans_dic.xlsx
@@ -1060,40 +1060,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1661375860688604</v>
+        <v>0.1672216755585526</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2906467982394483</v>
+        <v>0.2903905478034928</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3186814587654283</v>
+        <v>0.3192984871535899</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1305771752612658</v>
+        <v>0.1302403486750901</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2624656905835934</v>
+        <v>0.26384362051667</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2990564639191026</v>
+        <v>0.3001012413198693</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3413284128898709</v>
+        <v>0.342630972257788</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1582031961928502</v>
+        <v>0.1575799114883717</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2199434528498186</v>
+        <v>0.2195193612301093</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2995189809956259</v>
+        <v>0.300251809043095</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.334256535229414</v>
+        <v>0.3343335167394599</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1476821080776039</v>
+        <v>0.1484511499309641</v>
       </c>
     </row>
     <row r="18">
@@ -1104,40 +1104,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1933209398755536</v>
+        <v>0.1947754577590402</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3220075191731135</v>
+        <v>0.3222115492250381</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3519660070048566</v>
+        <v>0.3518009977240096</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1560738651865175</v>
+        <v>0.1572629658655176</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2945932591776289</v>
+        <v>0.2934901523510872</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3312041501957175</v>
+        <v>0.3316702245341578</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3734421093541375</v>
+        <v>0.3750928488997676</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1807435181023281</v>
+        <v>0.1803316867074464</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2394166689381697</v>
+        <v>0.2400301997662136</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3225228860985103</v>
+        <v>0.3239997014749658</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3583264067718812</v>
+        <v>0.3587666103649736</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1653173067503195</v>
+        <v>0.1660665605953379</v>
       </c>
     </row>
     <row r="19">
@@ -1936,40 +1936,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>536762</v>
+        <v>540265</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>990857</v>
+        <v>989983</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1073090</v>
+        <v>1075168</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>454576</v>
+        <v>453404</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>870066</v>
+        <v>874633</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1059474</v>
+        <v>1063175</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1203794</v>
+        <v>1208388</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>584943</v>
+        <v>582638</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1439705</v>
+        <v>1436929</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>2082216</v>
+        <v>2087311</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2304390</v>
+        <v>2304920</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1060166</v>
+        <v>1065686</v>
       </c>
     </row>
     <row r="23">
@@ -1980,40 +1980,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>624587</v>
+        <v>629286</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1097770</v>
+        <v>1098466</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1185169</v>
+        <v>1184613</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>543337</v>
+        <v>547477</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>976568</v>
+        <v>972911</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1173364</v>
+        <v>1175015</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1317053</v>
+        <v>1322874</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>668284</v>
+        <v>666761</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1567173</v>
+        <v>1571189</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>2242136</v>
+        <v>2252403</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>2470329</v>
+        <v>2473364</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1186764</v>
+        <v>1192142</v>
       </c>
     </row>
     <row r="24">
